--- a/artfynd/A 28663-2023.xlsx
+++ b/artfynd/A 28663-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY58"/>
+  <dimension ref="A1:AY77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7301,6 +7301,2215 @@
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>112074007</v>
+      </c>
+      <c r="B59" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Kulltjärnen (Kulltjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>570551.5050256754</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7054716.889743884</v>
+      </c>
+      <c r="S59" t="n">
+        <v>25</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>18:25</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>18:25</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>112073748</v>
+      </c>
+      <c r="B60" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Kulltjärnen (Kulltjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>570531.8202567359</v>
+      </c>
+      <c r="R60" t="n">
+        <v>7054760.505650275</v>
+      </c>
+      <c r="S60" t="n">
+        <v>25</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>18:09</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>18:09</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>112074315</v>
+      </c>
+      <c r="B61" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Kulltjärnen (Kulltjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>570621.4455831917</v>
+      </c>
+      <c r="R61" t="n">
+        <v>7054777.630136543</v>
+      </c>
+      <c r="S61" t="n">
+        <v>25</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>18:44</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>18:44</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>112073706</v>
+      </c>
+      <c r="B62" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Kulltjärnen (Kulltjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>570516.806702278</v>
+      </c>
+      <c r="R62" t="n">
+        <v>7054754.386891061</v>
+      </c>
+      <c r="S62" t="n">
+        <v>25</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>18:06</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>18:06</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>112073661</v>
+      </c>
+      <c r="B63" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Kulltjärnen (Kulltjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>570522.5767603692</v>
+      </c>
+      <c r="R63" t="n">
+        <v>7054775.429503814</v>
+      </c>
+      <c r="S63" t="n">
+        <v>25</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>112074371</v>
+      </c>
+      <c r="B64" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Kulltjärnen (Kulltjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>570622.7321144948</v>
+      </c>
+      <c r="R64" t="n">
+        <v>7054779.883709732</v>
+      </c>
+      <c r="S64" t="n">
+        <v>25</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>112074220</v>
+      </c>
+      <c r="B65" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Kulltjärnen (Kulltjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>570573.2188090744</v>
+      </c>
+      <c r="R65" t="n">
+        <v>7054742.292409532</v>
+      </c>
+      <c r="S65" t="n">
+        <v>25</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>18:37</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>18:37</t>
+        </is>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>112073635</v>
+      </c>
+      <c r="B66" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Kulltjärnen (Kulltjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>570512.9567393821</v>
+      </c>
+      <c r="R66" t="n">
+        <v>7054747.18148315</v>
+      </c>
+      <c r="S66" t="n">
+        <v>25</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>18:01</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>18:01</t>
+        </is>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>112074850</v>
+      </c>
+      <c r="B67" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Kulltjärnen (Kulltjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>570506.8505762473</v>
+      </c>
+      <c r="R67" t="n">
+        <v>7054761.285246292</v>
+      </c>
+      <c r="S67" t="n">
+        <v>25</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>19:11</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>19:11</t>
+        </is>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>112073383</v>
+      </c>
+      <c r="B68" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Kulltjärnen (Kulltjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>570562.2234419232</v>
+      </c>
+      <c r="R68" t="n">
+        <v>7054715.79328362</v>
+      </c>
+      <c r="S68" t="n">
+        <v>25</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>112074284</v>
+      </c>
+      <c r="B69" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Kulltjärnen (Kulltjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>570618.9022334777</v>
+      </c>
+      <c r="R69" t="n">
+        <v>7054771.788696177</v>
+      </c>
+      <c r="S69" t="n">
+        <v>25</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>18:42</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>18:42</t>
+        </is>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>112074829</v>
+      </c>
+      <c r="B70" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Kulltjärnen (Kulltjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>570501.1301605719</v>
+      </c>
+      <c r="R70" t="n">
+        <v>7054758.043147403</v>
+      </c>
+      <c r="S70" t="n">
+        <v>25</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT70" t="inlineStr"/>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>112073564</v>
+      </c>
+      <c r="B71" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Kulltjärnen (Kulltjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>570581.3937002636</v>
+      </c>
+      <c r="R71" t="n">
+        <v>7054735.354559071</v>
+      </c>
+      <c r="S71" t="n">
+        <v>25</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>17:57</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>17:57</t>
+        </is>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>112074296</v>
+      </c>
+      <c r="B72" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Kulltjärnen (Kulltjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>570619.7731324335</v>
+      </c>
+      <c r="R72" t="n">
+        <v>7054772.698062325</v>
+      </c>
+      <c r="S72" t="n">
+        <v>25</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>18:43</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>18:43</t>
+        </is>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT72" t="inlineStr"/>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>112072920</v>
+      </c>
+      <c r="B73" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Kulltjärnen (Kulltjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>570486.3121425963</v>
+      </c>
+      <c r="R73" t="n">
+        <v>7054642.905388325</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>17:29</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>17:29</t>
+        </is>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX73" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>112073927</v>
+      </c>
+      <c r="B74" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Kulltjärnen (Kulltjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>570548.2291422895</v>
+      </c>
+      <c r="R74" t="n">
+        <v>7054723.936710526</v>
+      </c>
+      <c r="S74" t="n">
+        <v>25</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>18:19</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>18:19</t>
+        </is>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>112074385</v>
+      </c>
+      <c r="B75" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Kulltjärnen (Kulltjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>570620.5944988887</v>
+      </c>
+      <c r="R75" t="n">
+        <v>7054775.831245085</v>
+      </c>
+      <c r="S75" t="n">
+        <v>25</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>18:46</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>18:46</t>
+        </is>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT75" t="inlineStr"/>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>112074184</v>
+      </c>
+      <c r="B76" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Kulltjärnen (Kulltjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>570578.0781659151</v>
+      </c>
+      <c r="R76" t="n">
+        <v>7054744.180526011</v>
+      </c>
+      <c r="S76" t="n">
+        <v>25</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>18:35</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>18:35</t>
+        </is>
+      </c>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT76" t="inlineStr"/>
+      <c r="AW76" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>112072947</v>
+      </c>
+      <c r="B77" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Kulltjärnen (Kulltjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>570501.1878315704</v>
+      </c>
+      <c r="R77" t="n">
+        <v>7054655.251126813</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>17:31</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>17:31</t>
+        </is>
+      </c>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT77" t="inlineStr"/>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 28663-2023.xlsx
+++ b/artfynd/A 28663-2023.xlsx
@@ -7303,7 +7303,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112074007</v>
+        <v>112073748</v>
       </c>
       <c r="B59" t="n">
         <v>96348</v>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -7348,10 +7348,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>570551.5050256754</v>
+        <v>570531.8202567359</v>
       </c>
       <c r="R59" t="n">
-        <v>7054716.889743884</v>
+        <v>7054760.505650275</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7383,7 +7383,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>18:25</t>
+          <t>18:09</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7393,7 +7393,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>18:25</t>
+          <t>18:09</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7420,7 +7420,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112073748</v>
+        <v>112073564</v>
       </c>
       <c r="B60" t="n">
         <v>96348</v>
@@ -7465,10 +7465,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>570531.8202567359</v>
+        <v>570581.3937002636</v>
       </c>
       <c r="R60" t="n">
-        <v>7054760.505650275</v>
+        <v>7054735.354559071</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7500,7 +7500,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>17:57</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7510,7 +7510,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>17:57</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7537,7 +7537,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112074315</v>
+        <v>112073635</v>
       </c>
       <c r="B61" t="n">
         <v>96348</v>
@@ -7570,7 +7570,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -7578,10 +7582,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>570621.4455831917</v>
+        <v>570512.9567393821</v>
       </c>
       <c r="R61" t="n">
-        <v>7054777.630136543</v>
+        <v>7054747.18148315</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7613,7 +7617,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>18:44</t>
+          <t>18:01</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7623,7 +7627,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>18:44</t>
+          <t>18:01</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7767,10 +7771,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112073661</v>
+        <v>112074385</v>
       </c>
       <c r="B63" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7783,40 +7787,35 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>570522.5767603692</v>
+        <v>570620.5944988887</v>
       </c>
       <c r="R63" t="n">
-        <v>7054775.429503814</v>
+        <v>7054775.831245085</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7848,7 +7847,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>18:03</t>
+          <t>18:46</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7858,7 +7857,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>18:03</t>
+          <t>18:46</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8002,7 +8001,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112074220</v>
+        <v>112074850</v>
       </c>
       <c r="B65" t="n">
         <v>96348</v>
@@ -8037,7 +8036,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -8047,10 +8046,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>570573.2188090744</v>
+        <v>570506.8505762473</v>
       </c>
       <c r="R65" t="n">
-        <v>7054742.292409532</v>
+        <v>7054761.285246292</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8082,7 +8081,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>18:37</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8092,7 +8091,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>18:37</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8119,7 +8118,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112073635</v>
+        <v>112074315</v>
       </c>
       <c r="B66" t="n">
         <v>96348</v>
@@ -8152,11 +8151,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -8164,10 +8159,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>570512.9567393821</v>
+        <v>570621.4455831917</v>
       </c>
       <c r="R66" t="n">
-        <v>7054747.18148315</v>
+        <v>7054777.630136543</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8199,7 +8194,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>18:01</t>
+          <t>18:44</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8209,7 +8204,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>18:01</t>
+          <t>18:44</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8236,7 +8231,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112074850</v>
+        <v>112072947</v>
       </c>
       <c r="B67" t="n">
         <v>96348</v>
@@ -8269,11 +8264,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -8281,13 +8272,13 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>570506.8505762473</v>
+        <v>570501.1878315704</v>
       </c>
       <c r="R67" t="n">
-        <v>7054761.285246292</v>
+        <v>7054655.251126813</v>
       </c>
       <c r="S67" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8316,7 +8307,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8326,7 +8317,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8470,10 +8461,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112074284</v>
+        <v>112074184</v>
       </c>
       <c r="B69" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8482,28 +8473,32 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
@@ -8511,10 +8506,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>570618.9022334777</v>
+        <v>570578.0781659151</v>
       </c>
       <c r="R69" t="n">
-        <v>7054771.788696177</v>
+        <v>7054744.180526011</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8546,7 +8541,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8556,7 +8551,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8583,7 +8578,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112074829</v>
+        <v>112074007</v>
       </c>
       <c r="B70" t="n">
         <v>96348</v>
@@ -8628,10 +8623,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>570501.1301605719</v>
+        <v>570551.5050256754</v>
       </c>
       <c r="R70" t="n">
-        <v>7054758.043147403</v>
+        <v>7054716.889743884</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8663,7 +8658,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8673,7 +8668,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8700,7 +8695,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112073564</v>
+        <v>112072920</v>
       </c>
       <c r="B71" t="n">
         <v>96348</v>
@@ -8735,7 +8730,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -8745,13 +8740,13 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>570581.3937002636</v>
+        <v>570486.3121425963</v>
       </c>
       <c r="R71" t="n">
-        <v>7054735.354559071</v>
+        <v>7054642.905388325</v>
       </c>
       <c r="S71" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -8780,7 +8775,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>17:57</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8790,7 +8785,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>17:57</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8817,10 +8812,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112074296</v>
+        <v>112073661</v>
       </c>
       <c r="B72" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8829,43 +8824,44 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>570619.7731324335</v>
+        <v>570522.5767603692</v>
       </c>
       <c r="R72" t="n">
-        <v>7054772.698062325</v>
+        <v>7054775.429503814</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8897,7 +8893,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>18:03</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8907,7 +8903,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>18:03</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8934,7 +8930,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112072920</v>
+        <v>112074220</v>
       </c>
       <c r="B73" t="n">
         <v>96348</v>
@@ -8969,7 +8965,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -8979,13 +8975,13 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>570486.3121425963</v>
+        <v>570573.2188090744</v>
       </c>
       <c r="R73" t="n">
-        <v>7054642.905388325</v>
+        <v>7054742.292409532</v>
       </c>
       <c r="S73" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -9014,7 +9010,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>18:37</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -9024,7 +9020,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>18:37</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9051,10 +9047,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112073927</v>
+        <v>112074829</v>
       </c>
       <c r="B74" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9063,44 +9059,43 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>570548.2291422895</v>
+        <v>570501.1301605719</v>
       </c>
       <c r="R74" t="n">
-        <v>7054723.936710526</v>
+        <v>7054758.043147403</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -9132,7 +9127,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -9142,7 +9137,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9169,10 +9164,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112074385</v>
+        <v>112073927</v>
       </c>
       <c r="B75" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9185,35 +9180,40 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>570620.5944988887</v>
+        <v>570548.2291422895</v>
       </c>
       <c r="R75" t="n">
-        <v>7054775.831245085</v>
+        <v>7054723.936710526</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>18:46</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>18:46</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9282,10 +9282,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112074184</v>
+        <v>112074284</v>
       </c>
       <c r="B76" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9294,32 +9294,28 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -9327,10 +9323,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>570578.0781659151</v>
+        <v>570618.9022334777</v>
       </c>
       <c r="R76" t="n">
-        <v>7054744.180526011</v>
+        <v>7054771.788696177</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9362,7 +9358,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9372,7 +9368,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9399,7 +9395,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112072947</v>
+        <v>112074296</v>
       </c>
       <c r="B77" t="n">
         <v>96348</v>
@@ -9432,7 +9428,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
@@ -9440,13 +9440,13 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>570501.1878315704</v>
+        <v>570619.7731324335</v>
       </c>
       <c r="R77" t="n">
-        <v>7054655.251126813</v>
+        <v>7054772.698062325</v>
       </c>
       <c r="S77" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD77" t="b">

--- a/artfynd/A 28663-2023.xlsx
+++ b/artfynd/A 28663-2023.xlsx
@@ -8118,7 +8118,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112074315</v>
+        <v>112072947</v>
       </c>
       <c r="B66" t="n">
         <v>96348</v>
@@ -8159,13 +8159,13 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>570621.4455831917</v>
+        <v>570501.1878315704</v>
       </c>
       <c r="R66" t="n">
-        <v>7054777.630136543</v>
+        <v>7054655.251126813</v>
       </c>
       <c r="S66" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>18:44</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8204,7 +8204,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>18:44</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8231,7 +8231,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112072947</v>
+        <v>112074315</v>
       </c>
       <c r="B67" t="n">
         <v>96348</v>
@@ -8272,13 +8272,13 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>570501.1878315704</v>
+        <v>570621.4455831917</v>
       </c>
       <c r="R67" t="n">
-        <v>7054655.251126813</v>
+        <v>7054777.630136543</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>18:44</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8317,7 +8317,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>18:44</t>
         </is>
       </c>
       <c r="AD67" t="b">

--- a/artfynd/A 28663-2023.xlsx
+++ b/artfynd/A 28663-2023.xlsx
@@ -7303,7 +7303,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112073748</v>
+        <v>112072947</v>
       </c>
       <c r="B59" t="n">
         <v>96348</v>
@@ -7336,11 +7336,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7348,13 +7344,13 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>570531.8202567359</v>
+        <v>570501.1878315704</v>
       </c>
       <c r="R59" t="n">
-        <v>7054760.505650275</v>
+        <v>7054655.251126813</v>
       </c>
       <c r="S59" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7383,7 +7379,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7393,7 +7389,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7420,7 +7416,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112073564</v>
+        <v>112073706</v>
       </c>
       <c r="B60" t="n">
         <v>96348</v>
@@ -7455,7 +7451,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -7465,10 +7461,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>570581.3937002636</v>
+        <v>570516.806702278</v>
       </c>
       <c r="R60" t="n">
-        <v>7054735.354559071</v>
+        <v>7054754.386891061</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7500,7 +7496,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>17:57</t>
+          <t>18:06</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7510,7 +7506,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>17:57</t>
+          <t>18:06</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7537,7 +7533,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112073635</v>
+        <v>112074315</v>
       </c>
       <c r="B61" t="n">
         <v>96348</v>
@@ -7570,11 +7566,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -7582,10 +7574,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>570512.9567393821</v>
+        <v>570621.4455831917</v>
       </c>
       <c r="R61" t="n">
-        <v>7054747.18148315</v>
+        <v>7054777.630136543</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7617,7 +7609,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>18:01</t>
+          <t>18:44</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7627,7 +7619,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>18:01</t>
+          <t>18:44</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7654,7 +7646,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112073706</v>
+        <v>112073635</v>
       </c>
       <c r="B62" t="n">
         <v>96348</v>
@@ -7689,7 +7681,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -7699,10 +7691,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>570516.806702278</v>
+        <v>570512.9567393821</v>
       </c>
       <c r="R62" t="n">
-        <v>7054754.386891061</v>
+        <v>7054747.18148315</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7734,7 +7726,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>18:06</t>
+          <t>18:01</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7744,7 +7736,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>18:06</t>
+          <t>18:01</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7771,10 +7763,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112074385</v>
+        <v>112073383</v>
       </c>
       <c r="B63" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7783,28 +7775,32 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -7812,10 +7808,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>570620.5944988887</v>
+        <v>570562.2234419232</v>
       </c>
       <c r="R63" t="n">
-        <v>7054775.831245085</v>
+        <v>7054715.79328362</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7847,7 +7843,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>18:46</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7857,7 +7853,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>18:46</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7884,7 +7880,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112074371</v>
+        <v>112074850</v>
       </c>
       <c r="B64" t="n">
         <v>96348</v>
@@ -7919,7 +7915,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -7929,10 +7925,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>570622.7321144948</v>
+        <v>570506.8505762473</v>
       </c>
       <c r="R64" t="n">
-        <v>7054779.883709732</v>
+        <v>7054761.285246292</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7964,7 +7960,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7974,7 +7970,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8001,10 +7997,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112074850</v>
+        <v>112074284</v>
       </c>
       <c r="B65" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8013,32 +8009,28 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8046,10 +8038,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>570506.8505762473</v>
+        <v>570618.9022334777</v>
       </c>
       <c r="R65" t="n">
-        <v>7054761.285246292</v>
+        <v>7054771.788696177</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8081,7 +8073,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8091,7 +8083,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8118,7 +8110,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112072947</v>
+        <v>112074007</v>
       </c>
       <c r="B66" t="n">
         <v>96348</v>
@@ -8151,7 +8143,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -8159,13 +8155,13 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>570501.1878315704</v>
+        <v>570551.5050256754</v>
       </c>
       <c r="R66" t="n">
-        <v>7054655.251126813</v>
+        <v>7054716.889743884</v>
       </c>
       <c r="S66" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8194,7 +8190,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8204,7 +8200,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8231,7 +8227,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112074315</v>
+        <v>112073748</v>
       </c>
       <c r="B67" t="n">
         <v>96348</v>
@@ -8264,7 +8260,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -8272,10 +8272,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>570621.4455831917</v>
+        <v>570531.8202567359</v>
       </c>
       <c r="R67" t="n">
-        <v>7054777.630136543</v>
+        <v>7054760.505650275</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>18:44</t>
+          <t>18:09</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8317,7 +8317,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>18:44</t>
+          <t>18:09</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8344,10 +8344,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112073383</v>
+        <v>112074385</v>
       </c>
       <c r="B68" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8356,32 +8356,28 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
@@ -8389,10 +8385,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>570562.2234419232</v>
+        <v>570620.5944988887</v>
       </c>
       <c r="R68" t="n">
-        <v>7054715.79328362</v>
+        <v>7054775.831245085</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8424,7 +8420,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:46</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8434,7 +8430,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:46</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8461,7 +8457,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112074184</v>
+        <v>112074829</v>
       </c>
       <c r="B69" t="n">
         <v>96348</v>
@@ -8496,7 +8492,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -8506,10 +8502,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>570578.0781659151</v>
+        <v>570501.1301605719</v>
       </c>
       <c r="R69" t="n">
-        <v>7054744.180526011</v>
+        <v>7054758.043147403</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8541,7 +8537,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8551,7 +8547,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8578,10 +8574,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112074007</v>
+        <v>112073927</v>
       </c>
       <c r="B70" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8590,43 +8586,44 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>570551.5050256754</v>
+        <v>570548.2291422895</v>
       </c>
       <c r="R70" t="n">
-        <v>7054716.889743884</v>
+        <v>7054723.936710526</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8658,7 +8655,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>18:25</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8668,7 +8665,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>18:25</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8695,7 +8692,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112072920</v>
+        <v>112074371</v>
       </c>
       <c r="B71" t="n">
         <v>96348</v>
@@ -8730,7 +8727,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -8740,13 +8737,13 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>570486.3121425963</v>
+        <v>570622.7321144948</v>
       </c>
       <c r="R71" t="n">
-        <v>7054642.905388325</v>
+        <v>7054779.883709732</v>
       </c>
       <c r="S71" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -8775,7 +8772,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8785,7 +8782,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8812,10 +8809,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112073661</v>
+        <v>112074184</v>
       </c>
       <c r="B72" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8824,44 +8821,43 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>570522.5767603692</v>
+        <v>570578.0781659151</v>
       </c>
       <c r="R72" t="n">
-        <v>7054775.429503814</v>
+        <v>7054744.180526011</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8893,7 +8889,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>18:03</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8903,7 +8899,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>18:03</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8930,7 +8926,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112074220</v>
+        <v>112074296</v>
       </c>
       <c r="B73" t="n">
         <v>96348</v>
@@ -8965,7 +8961,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -8975,10 +8971,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>570573.2188090744</v>
+        <v>570619.7731324335</v>
       </c>
       <c r="R73" t="n">
-        <v>7054742.292409532</v>
+        <v>7054772.698062325</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -9010,7 +9006,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>18:37</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -9020,7 +9016,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>18:37</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9047,10 +9043,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112074829</v>
+        <v>112073661</v>
       </c>
       <c r="B74" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9059,43 +9055,44 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>570501.1301605719</v>
+        <v>570522.5767603692</v>
       </c>
       <c r="R74" t="n">
-        <v>7054758.043147403</v>
+        <v>7054775.429503814</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -9127,7 +9124,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>18:03</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -9137,7 +9134,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>18:03</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9164,10 +9161,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112073927</v>
+        <v>112074220</v>
       </c>
       <c r="B75" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9176,44 +9173,43 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>570548.2291422895</v>
+        <v>570573.2188090744</v>
       </c>
       <c r="R75" t="n">
-        <v>7054723.936710526</v>
+        <v>7054742.292409532</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9245,7 +9241,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>18:37</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9255,7 +9251,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>18:37</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9282,10 +9278,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112074284</v>
+        <v>112072920</v>
       </c>
       <c r="B76" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9294,28 +9290,32 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -9323,13 +9323,13 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>570618.9022334777</v>
+        <v>570486.3121425963</v>
       </c>
       <c r="R76" t="n">
-        <v>7054771.788696177</v>
+        <v>7054642.905388325</v>
       </c>
       <c r="S76" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9368,7 +9368,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9395,7 +9395,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112074296</v>
+        <v>112073564</v>
       </c>
       <c r="B77" t="n">
         <v>96348</v>
@@ -9430,7 +9430,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -9440,10 +9440,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>570619.7731324335</v>
+        <v>570581.3937002636</v>
       </c>
       <c r="R77" t="n">
-        <v>7054772.698062325</v>
+        <v>7054735.354559071</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>17:57</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>17:57</t>
         </is>
       </c>
       <c r="AD77" t="b">

--- a/artfynd/A 28663-2023.xlsx
+++ b/artfynd/A 28663-2023.xlsx
@@ -7303,7 +7303,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112072947</v>
+        <v>112074315</v>
       </c>
       <c r="B59" t="n">
         <v>96348</v>
@@ -7344,13 +7344,13 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>570501.1878315704</v>
+        <v>570621</v>
       </c>
       <c r="R59" t="n">
-        <v>7054655.251126813</v>
+        <v>7054778</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>18:44</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7389,7 +7389,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>18:44</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7416,7 +7416,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112073706</v>
+        <v>112074296</v>
       </c>
       <c r="B60" t="n">
         <v>96348</v>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -7461,10 +7461,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>570516.806702278</v>
+        <v>570620</v>
       </c>
       <c r="R60" t="n">
-        <v>7054754.386891061</v>
+        <v>7054773</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>18:06</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>18:06</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7533,7 +7533,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112074315</v>
+        <v>112074220</v>
       </c>
       <c r="B61" t="n">
         <v>96348</v>
@@ -7566,7 +7566,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -7574,10 +7578,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>570621.4455831917</v>
+        <v>570573</v>
       </c>
       <c r="R61" t="n">
-        <v>7054777.630136543</v>
+        <v>7054742</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7609,7 +7613,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>18:44</t>
+          <t>18:37</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7619,7 +7623,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>18:44</t>
+          <t>18:37</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7646,7 +7650,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112073635</v>
+        <v>112073383</v>
       </c>
       <c r="B62" t="n">
         <v>96348</v>
@@ -7681,7 +7685,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>200</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -7691,10 +7695,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>570512.9567393821</v>
+        <v>570562</v>
       </c>
       <c r="R62" t="n">
-        <v>7054747.18148315</v>
+        <v>7054716</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7726,7 +7730,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>18:01</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7736,7 +7740,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>18:01</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7763,7 +7767,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112073383</v>
+        <v>112074850</v>
       </c>
       <c r="B63" t="n">
         <v>96348</v>
@@ -7798,7 +7802,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -7808,10 +7812,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>570562.2234419232</v>
+        <v>570507</v>
       </c>
       <c r="R63" t="n">
-        <v>7054715.79328362</v>
+        <v>7054761</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7843,7 +7847,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7853,7 +7857,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7880,7 +7884,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112074850</v>
+        <v>112073635</v>
       </c>
       <c r="B64" t="n">
         <v>96348</v>
@@ -7915,7 +7919,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -7925,10 +7929,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>570506.8505762473</v>
+        <v>570513</v>
       </c>
       <c r="R64" t="n">
-        <v>7054761.285246292</v>
+        <v>7054747</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7960,7 +7964,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>18:01</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7970,7 +7974,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>18:01</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7997,10 +8001,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112074284</v>
+        <v>112073748</v>
       </c>
       <c r="B65" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8009,28 +8013,32 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8038,10 +8046,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>570618.9022334777</v>
+        <v>570532</v>
       </c>
       <c r="R65" t="n">
-        <v>7054771.788696177</v>
+        <v>7054761</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8073,7 +8081,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>18:09</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8083,7 +8091,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>18:09</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8110,10 +8118,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112074007</v>
+        <v>112073661</v>
       </c>
       <c r="B66" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8122,43 +8130,44 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>570551.5050256754</v>
+        <v>570523</v>
       </c>
       <c r="R66" t="n">
-        <v>7054716.889743884</v>
+        <v>7054775</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8190,7 +8199,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>18:25</t>
+          <t>18:03</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8200,7 +8209,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>18:25</t>
+          <t>18:03</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8227,7 +8236,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112073748</v>
+        <v>112074184</v>
       </c>
       <c r="B67" t="n">
         <v>96348</v>
@@ -8262,7 +8271,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -8272,10 +8281,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>570531.8202567359</v>
+        <v>570578</v>
       </c>
       <c r="R67" t="n">
-        <v>7054760.505650275</v>
+        <v>7054744</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8307,7 +8316,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8317,7 +8326,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8344,7 +8353,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112074385</v>
+        <v>112074284</v>
       </c>
       <c r="B68" t="n">
         <v>78578</v>
@@ -8385,10 +8394,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>570620.5944988887</v>
+        <v>570619</v>
       </c>
       <c r="R68" t="n">
-        <v>7054775.831245085</v>
+        <v>7054772</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8420,7 +8429,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>18:46</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8430,7 +8439,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>18:46</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8457,10 +8466,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112074829</v>
+        <v>112074385</v>
       </c>
       <c r="B69" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8469,32 +8478,28 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
@@ -8502,10 +8507,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>570501.1301605719</v>
+        <v>570621</v>
       </c>
       <c r="R69" t="n">
-        <v>7054758.043147403</v>
+        <v>7054776</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8537,7 +8542,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>18:46</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8547,7 +8552,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>18:46</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8574,10 +8579,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112073927</v>
+        <v>112072947</v>
       </c>
       <c r="B70" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8586,47 +8591,42 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P70" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>570548.2291422895</v>
+        <v>570501</v>
       </c>
       <c r="R70" t="n">
-        <v>7054723.936710526</v>
+        <v>7054655</v>
       </c>
       <c r="S70" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8692,7 +8692,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112074371</v>
+        <v>112073564</v>
       </c>
       <c r="B71" t="n">
         <v>96348</v>
@@ -8737,10 +8737,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>570622.7321144948</v>
+        <v>570581</v>
       </c>
       <c r="R71" t="n">
-        <v>7054779.883709732</v>
+        <v>7054735</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>17:57</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8782,7 +8782,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>17:57</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8809,7 +8809,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112074184</v>
+        <v>112072920</v>
       </c>
       <c r="B72" t="n">
         <v>96348</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -8854,13 +8854,13 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>570578.0781659151</v>
+        <v>570486</v>
       </c>
       <c r="R72" t="n">
-        <v>7054744.180526011</v>
+        <v>7054643</v>
       </c>
       <c r="S72" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8926,10 +8926,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112074296</v>
+        <v>112073927</v>
       </c>
       <c r="B73" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8938,43 +8938,44 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>570619.7731324335</v>
+        <v>570548</v>
       </c>
       <c r="R73" t="n">
-        <v>7054772.698062325</v>
+        <v>7054724</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -9006,7 +9007,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -9016,7 +9017,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9043,10 +9044,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112073661</v>
+        <v>112074371</v>
       </c>
       <c r="B74" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9055,44 +9056,43 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>570522.5767603692</v>
+        <v>570623</v>
       </c>
       <c r="R74" t="n">
-        <v>7054775.429503814</v>
+        <v>7054780</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -9124,7 +9124,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>18:03</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>18:03</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9161,7 +9161,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112074220</v>
+        <v>112074007</v>
       </c>
       <c r="B75" t="n">
         <v>96348</v>
@@ -9196,7 +9196,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -9206,10 +9206,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>570573.2188090744</v>
+        <v>570552</v>
       </c>
       <c r="R75" t="n">
-        <v>7054742.292409532</v>
+        <v>7054717</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>18:37</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>18:37</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9278,7 +9278,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112072920</v>
+        <v>112073706</v>
       </c>
       <c r="B76" t="n">
         <v>96348</v>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -9323,13 +9323,13 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>570486.3121425963</v>
+        <v>570517</v>
       </c>
       <c r="R76" t="n">
-        <v>7054642.905388325</v>
+        <v>7054754</v>
       </c>
       <c r="S76" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>18:06</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9368,7 +9368,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>18:06</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9395,7 +9395,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112073564</v>
+        <v>112074829</v>
       </c>
       <c r="B77" t="n">
         <v>96348</v>
@@ -9430,7 +9430,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -9440,10 +9440,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>570581.3937002636</v>
+        <v>570501</v>
       </c>
       <c r="R77" t="n">
-        <v>7054735.354559071</v>
+        <v>7054758</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>17:57</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>17:57</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="AD77" t="b">

--- a/artfynd/A 28663-2023.xlsx
+++ b/artfynd/A 28663-2023.xlsx
@@ -7303,10 +7303,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112074315</v>
+        <v>112074385</v>
       </c>
       <c r="B59" t="n">
-        <v>96348</v>
+        <v>78699</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7315,25 +7315,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7347,7 +7347,7 @@
         <v>570621</v>
       </c>
       <c r="R59" t="n">
-        <v>7054778</v>
+        <v>7054776</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7379,7 +7379,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>18:44</t>
+          <t>18:46</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7389,7 +7389,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>18:44</t>
+          <t>18:46</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7416,10 +7416,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112074296</v>
+        <v>112074850</v>
       </c>
       <c r="B60" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -7461,10 +7461,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>570620</v>
+        <v>570507</v>
       </c>
       <c r="R60" t="n">
-        <v>7054773</v>
+        <v>7054761</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7533,10 +7533,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112074220</v>
+        <v>112074829</v>
       </c>
       <c r="B61" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -7578,10 +7578,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>570573</v>
+        <v>570501</v>
       </c>
       <c r="R61" t="n">
-        <v>7054742</v>
+        <v>7054758</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7613,7 +7613,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>18:37</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>18:37</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7650,10 +7650,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112073383</v>
+        <v>112074371</v>
       </c>
       <c r="B62" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -7695,10 +7695,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>570562</v>
+        <v>570623</v>
       </c>
       <c r="R62" t="n">
-        <v>7054716</v>
+        <v>7054780</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7730,7 +7730,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7740,7 +7740,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7767,10 +7767,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112074850</v>
+        <v>112073564</v>
       </c>
       <c r="B63" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -7812,10 +7812,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>570507</v>
+        <v>570581</v>
       </c>
       <c r="R63" t="n">
-        <v>7054761</v>
+        <v>7054735</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>17:57</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>17:57</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7884,10 +7884,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112073635</v>
+        <v>112074184</v>
       </c>
       <c r="B64" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -7929,10 +7929,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>570513</v>
+        <v>570578</v>
       </c>
       <c r="R64" t="n">
-        <v>7054747</v>
+        <v>7054744</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7964,7 +7964,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>18:01</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>18:01</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8001,10 +8001,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112073748</v>
+        <v>112074315</v>
       </c>
       <c r="B65" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8034,11 +8034,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8046,10 +8042,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>570532</v>
+        <v>570621</v>
       </c>
       <c r="R65" t="n">
-        <v>7054761</v>
+        <v>7054778</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8081,7 +8077,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>18:44</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8091,7 +8087,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>18:44</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8118,10 +8114,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112073661</v>
+        <v>112074284</v>
       </c>
       <c r="B66" t="n">
-        <v>56398</v>
+        <v>78699</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8134,40 +8130,35 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P66" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>570523</v>
+        <v>570619</v>
       </c>
       <c r="R66" t="n">
-        <v>7054775</v>
+        <v>7054772</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8199,7 +8190,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>18:03</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8209,7 +8200,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>18:03</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8236,10 +8227,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112074184</v>
+        <v>112072947</v>
       </c>
       <c r="B67" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8269,11 +8260,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -8281,13 +8268,13 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>570578</v>
+        <v>570501</v>
       </c>
       <c r="R67" t="n">
-        <v>7054744</v>
+        <v>7054655</v>
       </c>
       <c r="S67" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8316,7 +8303,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8326,7 +8313,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8353,10 +8340,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112074284</v>
+        <v>112073383</v>
       </c>
       <c r="B68" t="n">
-        <v>78578</v>
+        <v>96720</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8365,28 +8352,32 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
@@ -8394,10 +8385,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>570619</v>
+        <v>570562</v>
       </c>
       <c r="R68" t="n">
-        <v>7054772</v>
+        <v>7054716</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8429,7 +8420,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8439,7 +8430,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8466,10 +8457,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112074385</v>
+        <v>112074220</v>
       </c>
       <c r="B69" t="n">
-        <v>78578</v>
+        <v>96720</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8478,28 +8469,32 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
@@ -8507,10 +8502,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>570621</v>
+        <v>570573</v>
       </c>
       <c r="R69" t="n">
-        <v>7054776</v>
+        <v>7054742</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8542,7 +8537,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>18:46</t>
+          <t>18:37</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8552,7 +8547,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>18:46</t>
+          <t>18:37</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8579,10 +8574,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112072947</v>
+        <v>112072920</v>
       </c>
       <c r="B70" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8612,7 +8607,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
@@ -8620,10 +8619,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>570501</v>
+        <v>570486</v>
       </c>
       <c r="R70" t="n">
-        <v>7054655</v>
+        <v>7054643</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
@@ -8655,7 +8654,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8665,7 +8664,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8692,10 +8691,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112073564</v>
+        <v>112073748</v>
       </c>
       <c r="B71" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8737,10 +8736,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>570581</v>
+        <v>570532</v>
       </c>
       <c r="R71" t="n">
-        <v>7054735</v>
+        <v>7054761</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8772,7 +8771,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>17:57</t>
+          <t>18:09</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8782,7 +8781,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>17:57</t>
+          <t>18:09</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8809,10 +8808,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112072920</v>
+        <v>112073661</v>
       </c>
       <c r="B72" t="n">
-        <v>96348</v>
+        <v>56430</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8821,46 +8820,47 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>570486</v>
+        <v>570523</v>
       </c>
       <c r="R72" t="n">
-        <v>7054643</v>
+        <v>7054775</v>
       </c>
       <c r="S72" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>18:03</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>18:03</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8926,10 +8926,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112073927</v>
+        <v>112073706</v>
       </c>
       <c r="B73" t="n">
-        <v>56398</v>
+        <v>96720</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8938,44 +8938,43 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>570548</v>
+        <v>570517</v>
       </c>
       <c r="R73" t="n">
-        <v>7054724</v>
+        <v>7054754</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -9007,7 +9006,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>18:06</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -9017,7 +9016,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>18:06</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9044,10 +9043,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112074371</v>
+        <v>112073635</v>
       </c>
       <c r="B74" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9079,7 +9078,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -9089,10 +9088,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>570623</v>
+        <v>570513</v>
       </c>
       <c r="R74" t="n">
-        <v>7054780</v>
+        <v>7054747</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -9124,7 +9123,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>18:01</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -9134,7 +9133,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>18:01</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9161,10 +9160,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112074007</v>
+        <v>112073927</v>
       </c>
       <c r="B75" t="n">
-        <v>96348</v>
+        <v>56430</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9173,43 +9172,44 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>570552</v>
+        <v>570548</v>
       </c>
       <c r="R75" t="n">
-        <v>7054717</v>
+        <v>7054724</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>18:25</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>18:25</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9278,10 +9278,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112073706</v>
+        <v>112074007</v>
       </c>
       <c r="B76" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9323,10 +9323,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>570517</v>
+        <v>570552</v>
       </c>
       <c r="R76" t="n">
-        <v>7054754</v>
+        <v>7054717</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9358,7 +9358,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>18:06</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9368,7 +9368,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>18:06</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9395,10 +9395,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112074829</v>
+        <v>112074296</v>
       </c>
       <c r="B77" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -9440,10 +9440,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>570501</v>
+        <v>570620</v>
       </c>
       <c r="R77" t="n">
-        <v>7054758</v>
+        <v>7054773</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD77" t="b">

--- a/artfynd/A 28663-2023.xlsx
+++ b/artfynd/A 28663-2023.xlsx
@@ -8114,10 +8114,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112074284</v>
+        <v>112072947</v>
       </c>
       <c r="B66" t="n">
-        <v>78699</v>
+        <v>96720</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8126,25 +8126,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8155,13 +8155,13 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>570619</v>
+        <v>570501</v>
       </c>
       <c r="R66" t="n">
-        <v>7054772</v>
+        <v>7054655</v>
       </c>
       <c r="S66" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8227,10 +8227,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112072947</v>
+        <v>112074284</v>
       </c>
       <c r="B67" t="n">
-        <v>96720</v>
+        <v>78699</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8239,25 +8239,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8268,13 +8268,13 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>570501</v>
+        <v>570619</v>
       </c>
       <c r="R67" t="n">
-        <v>7054655</v>
+        <v>7054772</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8313,7 +8313,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="AD67" t="b">

--- a/artfynd/A 28663-2023.xlsx
+++ b/artfynd/A 28663-2023.xlsx
@@ -7306,7 +7306,7 @@
         <v>112074385</v>
       </c>
       <c r="B59" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7416,10 +7416,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112074850</v>
+        <v>112074284</v>
       </c>
       <c r="B60" t="n">
-        <v>96720</v>
+        <v>78713</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7428,32 +7428,28 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7461,10 +7457,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>570507</v>
+        <v>570619</v>
       </c>
       <c r="R60" t="n">
-        <v>7054761</v>
+        <v>7054772</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7496,7 +7492,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7506,7 +7502,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7533,10 +7529,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112074829</v>
+        <v>112073927</v>
       </c>
       <c r="B61" t="n">
-        <v>96720</v>
+        <v>56430</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7545,43 +7541,44 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>570501</v>
+        <v>570548</v>
       </c>
       <c r="R61" t="n">
-        <v>7054758</v>
+        <v>7054724</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7613,7 +7610,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7623,7 +7620,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7650,10 +7647,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112074371</v>
+        <v>112074850</v>
       </c>
       <c r="B62" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7685,7 +7682,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -7695,10 +7692,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>570623</v>
+        <v>570507</v>
       </c>
       <c r="R62" t="n">
-        <v>7054780</v>
+        <v>7054761</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7730,7 +7727,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7740,7 +7737,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7767,10 +7764,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112073564</v>
+        <v>112073706</v>
       </c>
       <c r="B63" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7802,7 +7799,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -7812,10 +7809,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>570581</v>
+        <v>570517</v>
       </c>
       <c r="R63" t="n">
-        <v>7054735</v>
+        <v>7054754</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7847,7 +7844,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>17:57</t>
+          <t>18:06</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7857,7 +7854,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>17:57</t>
+          <t>18:06</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7884,10 +7881,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112074184</v>
+        <v>112072947</v>
       </c>
       <c r="B64" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7917,11 +7914,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -7929,13 +7922,13 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>570578</v>
+        <v>570501</v>
       </c>
       <c r="R64" t="n">
-        <v>7054744</v>
+        <v>7054655</v>
       </c>
       <c r="S64" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -7964,7 +7957,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7974,7 +7967,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8001,10 +7994,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112074315</v>
+        <v>112074220</v>
       </c>
       <c r="B65" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8034,7 +8027,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8042,10 +8039,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>570621</v>
+        <v>570573</v>
       </c>
       <c r="R65" t="n">
-        <v>7054778</v>
+        <v>7054742</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8077,7 +8074,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>18:44</t>
+          <t>18:37</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8087,7 +8084,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>18:44</t>
+          <t>18:37</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8114,10 +8111,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112072947</v>
+        <v>112073383</v>
       </c>
       <c r="B66" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8147,7 +8144,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -8155,13 +8156,13 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>570501</v>
+        <v>570562</v>
       </c>
       <c r="R66" t="n">
-        <v>7054655</v>
+        <v>7054716</v>
       </c>
       <c r="S66" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8190,7 +8191,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8200,7 +8201,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8227,10 +8228,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112074284</v>
+        <v>112072920</v>
       </c>
       <c r="B67" t="n">
-        <v>78699</v>
+        <v>96735</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8239,28 +8240,32 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -8268,13 +8273,13 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>570619</v>
+        <v>570486</v>
       </c>
       <c r="R67" t="n">
-        <v>7054772</v>
+        <v>7054643</v>
       </c>
       <c r="S67" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8303,7 +8308,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8313,7 +8318,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8340,10 +8345,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112073383</v>
+        <v>112074296</v>
       </c>
       <c r="B68" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8375,7 +8380,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -8385,10 +8390,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>570562</v>
+        <v>570620</v>
       </c>
       <c r="R68" t="n">
-        <v>7054716</v>
+        <v>7054773</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8420,7 +8425,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8430,7 +8435,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8457,10 +8462,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112074220</v>
+        <v>112073564</v>
       </c>
       <c r="B69" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8492,7 +8497,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -8502,10 +8507,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>570573</v>
+        <v>570581</v>
       </c>
       <c r="R69" t="n">
-        <v>7054742</v>
+        <v>7054735</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8537,7 +8542,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>18:37</t>
+          <t>17:57</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8547,7 +8552,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>18:37</t>
+          <t>17:57</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8574,10 +8579,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112072920</v>
+        <v>112074371</v>
       </c>
       <c r="B70" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8609,7 +8614,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -8619,13 +8624,13 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>570486</v>
+        <v>570623</v>
       </c>
       <c r="R70" t="n">
-        <v>7054643</v>
+        <v>7054780</v>
       </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -8654,7 +8659,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8664,7 +8669,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8691,10 +8696,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112073748</v>
+        <v>112074315</v>
       </c>
       <c r="B71" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8724,11 +8729,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
@@ -8736,10 +8737,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>570532</v>
+        <v>570621</v>
       </c>
       <c r="R71" t="n">
-        <v>7054761</v>
+        <v>7054778</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8771,7 +8772,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>18:44</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8781,7 +8782,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>18:44</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8808,10 +8809,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112073661</v>
+        <v>112074184</v>
       </c>
       <c r="B72" t="n">
-        <v>56430</v>
+        <v>96735</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8820,44 +8821,43 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>570523</v>
+        <v>570578</v>
       </c>
       <c r="R72" t="n">
-        <v>7054775</v>
+        <v>7054744</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8889,7 +8889,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>18:03</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>18:03</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8926,10 +8926,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112073706</v>
+        <v>112074007</v>
       </c>
       <c r="B73" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8971,10 +8971,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>570517</v>
+        <v>570552</v>
       </c>
       <c r="R73" t="n">
-        <v>7054754</v>
+        <v>7054717</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -9006,7 +9006,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>18:06</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>18:06</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9046,7 +9046,7 @@
         <v>112073635</v>
       </c>
       <c r="B74" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9160,10 +9160,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112073927</v>
+        <v>112074829</v>
       </c>
       <c r="B75" t="n">
-        <v>56430</v>
+        <v>96735</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9172,44 +9172,43 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>570548</v>
+        <v>570501</v>
       </c>
       <c r="R75" t="n">
-        <v>7054724</v>
+        <v>7054758</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9241,7 +9240,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9251,7 +9250,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9278,10 +9277,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112074007</v>
+        <v>112073661</v>
       </c>
       <c r="B76" t="n">
-        <v>96720</v>
+        <v>56430</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9290,43 +9289,44 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>570552</v>
+        <v>570523</v>
       </c>
       <c r="R76" t="n">
-        <v>7054717</v>
+        <v>7054775</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9358,7 +9358,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>18:25</t>
+          <t>18:03</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9368,7 +9368,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>18:25</t>
+          <t>18:03</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9395,10 +9395,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112074296</v>
+        <v>112073748</v>
       </c>
       <c r="B77" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -9440,10 +9440,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>570620</v>
+        <v>570532</v>
       </c>
       <c r="R77" t="n">
-        <v>7054773</v>
+        <v>7054761</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>18:09</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>18:09</t>
         </is>
       </c>
       <c r="AD77" t="b">

--- a/artfynd/A 28663-2023.xlsx
+++ b/artfynd/A 28663-2023.xlsx
@@ -7303,7 +7303,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112074385</v>
+        <v>112074284</v>
       </c>
       <c r="B59" t="n">
         <v>78713</v>
@@ -7344,10 +7344,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>570621</v>
+        <v>570619</v>
       </c>
       <c r="R59" t="n">
-        <v>7054776</v>
+        <v>7054772</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7379,7 +7379,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>18:46</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7389,7 +7389,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>18:46</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7416,10 +7416,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112074284</v>
+        <v>112073927</v>
       </c>
       <c r="B60" t="n">
-        <v>78713</v>
+        <v>56430</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7432,35 +7432,40 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>570619</v>
+        <v>570548</v>
       </c>
       <c r="R60" t="n">
-        <v>7054772</v>
+        <v>7054724</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7492,7 +7497,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7502,7 +7507,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7529,10 +7534,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112073927</v>
+        <v>112074385</v>
       </c>
       <c r="B61" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7545,40 +7550,35 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Kulltjärnen (Kulltjärnen), Ång</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>570548</v>
+        <v>570621</v>
       </c>
       <c r="R61" t="n">
-        <v>7054724</v>
+        <v>7054776</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>18:46</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>18:46</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -9043,7 +9043,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112073635</v>
+        <v>112074829</v>
       </c>
       <c r="B74" t="n">
         <v>96735</v>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -9088,10 +9088,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>570513</v>
+        <v>570501</v>
       </c>
       <c r="R74" t="n">
-        <v>7054747</v>
+        <v>7054758</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>18:01</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>18:01</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9160,7 +9160,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112074829</v>
+        <v>112073635</v>
       </c>
       <c r="B75" t="n">
         <v>96735</v>
@@ -9195,7 +9195,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -9205,10 +9205,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>570501</v>
+        <v>570513</v>
       </c>
       <c r="R75" t="n">
-        <v>7054758</v>
+        <v>7054747</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9240,7 +9240,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>18:01</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9250,7 +9250,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>18:01</t>
         </is>
       </c>
       <c r="AD75" t="b">
